--- a/Time manage.xlsx
+++ b/Time manage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Computer Science\Year 3\Dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6DFD4A-90CA-485D-8D74-7542E5609752}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BC0F4C-26CE-40BA-B5A0-9C5CE33D0828}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{127487B7-7089-4634-9ACD-D5A6D052DDDE}"/>
   </bookViews>
@@ -130,9 +130,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -251,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,12 +576,13 @@
   <dimension ref="B5:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="24" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
